--- a/biology/Botanique/Microberlinia_bisulcata/Microberlinia_bisulcata.xlsx
+++ b/biology/Botanique/Microberlinia_bisulcata/Microberlinia_bisulcata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microberlinia bisulcata A. Chev. est une espèce de plantes du genre Microberlinia[4], classée dans la famille des Fabaceae (APGIII)[5], endémique du Cameroun. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microberlinia bisulcata A. Chev. est une espèce de plantes du genre Microberlinia, classée dans la famille des Fabaceae (APGIII), endémique du Cameroun. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berlinia bifurcata (A.Chev.) Troupin et Berlinia bisulcata (A.Chev.) Troupin sont des synonymes de l’espèce[5], également connue localement sous les noms de « zingana », « Tigerwood », « zebrano », « African Zebrawood[6] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berlinia bifurcata (A.Chev.) Troupin et Berlinia bisulcata (A.Chev.) Troupin sont des synonymes de l’espèce, également connue localement sous les noms de « zingana », « Tigerwood », « zebrano », « African Zebrawood ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un arbre de plus de 40 m de haut, avec un tronc pouvant dépasser 100 cm de diamètre de fût[7]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbre de plus de 40 m de haut, avec un tronc pouvant dépasser 100 cm de diamètre de fût. 
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle y est commune (28 collections sur 11 sites[8]), particulièrement dans la région du Sud-Ouest (parc national de Korup, abords du mont Cameroun[9]) et dans celle du Littoral, à basse et moyenne altitude. Elle a cependant été observée en outre sur un site au Nigeria.
-Elle est considérée comme une espèce en danger critique d'extinction selon les critères de l’IUCN[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle y est commune (28 collections sur 11 sites), particulièrement dans la région du Sud-Ouest (parc national de Korup, abords du mont Cameroun) et dans celle du Littoral, à basse et moyenne altitude. Elle a cependant été observée en outre sur un site au Nigeria.
+Elle est considérée comme une espèce en danger critique d'extinction selon les critères de l’IUCN.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un bois dur, de densité 0,70 à 0,85[11]. Il est lourd, modérément durable. Résistant aux termites, aux champignons et à la pluie[7]. Il est utilisé dans les placages en ébénisterie, la fabrication de mobilier, la décoration d'intérieur[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un bois dur, de densité 0,70 à 0,85. Il est lourd, modérément durable. Résistant aux termites, aux champignons et à la pluie. Il est utilisé dans les placages en ébénisterie, la fabrication de mobilier, la décoration d'intérieur.
 </t>
         </is>
       </c>
